--- a/data/trans_orig/P36BPD03_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18863</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11634</v>
+        <v>12085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31342</v>
+        <v>30582</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05916009061101761</v>
+        <v>0.05916009061101762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03648926780130698</v>
+        <v>0.03790135693227058</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09829757508599264</v>
+        <v>0.09591470126220238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>11132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6098</v>
+        <v>5994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22062</v>
+        <v>21121</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03521985626761891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01929423692765394</v>
+        <v>0.01896453069562197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06980169956180167</v>
+        <v>0.06682569169028597</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -783,19 +783,19 @@
         <v>29995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21423</v>
+        <v>20637</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44571</v>
+        <v>44433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04724247325591241</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03374243026385297</v>
+        <v>0.03250369270195993</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07020094592635029</v>
+        <v>0.06998344570710331</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>131765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111411</v>
+        <v>113865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>148902</v>
+        <v>149766</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.413258312503118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3494218626058125</v>
+        <v>0.3571167980857132</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4670040805471815</v>
+        <v>0.4697139049987102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -833,19 +833,19 @@
         <v>117984</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104889</v>
+        <v>104564</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133670</v>
+        <v>133449</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3732963484207916</v>
+        <v>0.3732963484207915</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3318631089889765</v>
+        <v>0.3308346248041732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4229245219617486</v>
+        <v>0.4222266340815888</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>342</v>
@@ -854,19 +854,19 @@
         <v>249750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>225066</v>
+        <v>228108</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>269983</v>
+        <v>272437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3933649651841121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3544872799781684</v>
+        <v>0.3592787403373039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4252326285009695</v>
+        <v>0.4290986960102237</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>137610</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120045</v>
+        <v>120897</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157039</v>
+        <v>155884</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4315901468909638</v>
+        <v>0.4315901468909639</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3764996938784199</v>
+        <v>0.3791704104581688</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4925248774609525</v>
+        <v>0.488903083940326</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>263</v>
@@ -904,19 +904,19 @@
         <v>158854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>143139</v>
+        <v>144242</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>173502</v>
+        <v>173536</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5026052982163026</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4528850522726507</v>
+        <v>0.4563753942541253</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5489511702346334</v>
+        <v>0.5490571980640874</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>404</v>
@@ -925,19 +925,19 @@
         <v>296464</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>274123</v>
+        <v>271740</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>321656</v>
+        <v>318772</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4669419896411435</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4317531965785925</v>
+        <v>0.4279998395183114</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5066194642516821</v>
+        <v>0.5020775937226867</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>30606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21904</v>
+        <v>21446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43177</v>
+        <v>41998</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0959914499949005</v>
+        <v>0.09599144999490053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06869810476241768</v>
+        <v>0.06726203011867291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1354182663612779</v>
+        <v>0.1317205497271735</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -975,19 +975,19 @@
         <v>28091</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21836</v>
+        <v>21429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36640</v>
+        <v>36727</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0888784970952869</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06908924819117385</v>
+        <v>0.06779975101117079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1159271027904147</v>
+        <v>0.1162026311192022</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -996,19 +996,19 @@
         <v>58697</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46981</v>
+        <v>47070</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72859</v>
+        <v>72307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09245057191883209</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0739968996949045</v>
+        <v>0.07413728659159689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1147560820668384</v>
+        <v>0.113885834042534</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>36411</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25027</v>
+        <v>24055</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52238</v>
+        <v>53545</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06861564671333924</v>
+        <v>0.06861564671333922</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04716361296003594</v>
+        <v>0.04533070241985235</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09844283212798824</v>
+        <v>0.1009042246933009</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>49</v>
@@ -1121,19 +1121,19 @@
         <v>35293</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26139</v>
+        <v>26594</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47324</v>
+        <v>47020</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06457999874057899</v>
+        <v>0.06457999874057897</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04782966149606879</v>
+        <v>0.04866213588049145</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08659489944265966</v>
+        <v>0.08603892088025127</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>77</v>
@@ -1142,19 +1142,19 @@
         <v>71703</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>55255</v>
+        <v>55362</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>90373</v>
+        <v>90145</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06656813568278519</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05129804888957237</v>
+        <v>0.05139698716645753</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08390100783693963</v>
+        <v>0.08368901082634604</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>197438</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169082</v>
+        <v>169640</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222889</v>
+        <v>228641</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3720694433210227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3186331329735264</v>
+        <v>0.3196859967792453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4200323184538303</v>
+        <v>0.4308721860637126</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>189</v>
@@ -1192,19 +1192,19 @@
         <v>147680</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129606</v>
+        <v>129398</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167191</v>
+        <v>165427</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2702316456220811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2371581444850725</v>
+        <v>0.2367793196069276</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.305934403311894</v>
+        <v>0.302706003817621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>330</v>
@@ -1213,19 +1213,19 @@
         <v>345117</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>311623</v>
+        <v>309152</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>380904</v>
+        <v>379408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3204014049977253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2893053150084554</v>
+        <v>0.2870115855923012</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3536250325627631</v>
+        <v>0.3522362283942473</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>237536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>208815</v>
+        <v>207173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266391</v>
+        <v>268504</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4476355732476849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3935106892393005</v>
+        <v>0.3904153893936612</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5020115916295989</v>
+        <v>0.5059942912835257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>385</v>
@@ -1263,19 +1263,19 @@
         <v>292501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>270693</v>
+        <v>270223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314387</v>
+        <v>312452</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5352310875704083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4953263978964264</v>
+        <v>0.4944670211297847</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5752798181514102</v>
+        <v>0.5717395410499626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>554</v>
@@ -1284,19 +1284,19 @@
         <v>530037</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>494472</v>
+        <v>498018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>565781</v>
+        <v>572049</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4920777007606453</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4590598651801077</v>
+        <v>0.4623516155368476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5252618163733037</v>
+        <v>0.5310810374480748</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>59262</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42809</v>
+        <v>42183</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80147</v>
+        <v>78952</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1116793367179531</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08067342837963179</v>
+        <v>0.07949310798128982</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1510357525026425</v>
+        <v>0.1487848063230095</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>94</v>
@@ -1334,19 +1334,19 @@
         <v>71021</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57879</v>
+        <v>56271</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>85864</v>
+        <v>87231</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1299572680669316</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1059100641162973</v>
+        <v>0.1029671323145913</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1571182085465641</v>
+        <v>0.1596187286464304</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -1355,19 +1355,19 @@
         <v>130283</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109635</v>
+        <v>108339</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>155533</v>
+        <v>155166</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1209527585588443</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1017835103770886</v>
+        <v>0.1005806098963064</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1443940813992982</v>
+        <v>0.144053201573139</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>25708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17527</v>
+        <v>17355</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37354</v>
+        <v>36713</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0813570264028313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05546590898141067</v>
+        <v>0.05492354085279941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1182120607982577</v>
+        <v>0.1161843171257592</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1480,19 +1480,19 @@
         <v>18666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12513</v>
+        <v>12902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26419</v>
+        <v>28007</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0526797972623825</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03531465921395976</v>
+        <v>0.03641312106868907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07456081047452852</v>
+        <v>0.079045099515579</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -1501,19 +1501,19 @@
         <v>44374</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32296</v>
+        <v>33610</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57526</v>
+        <v>56661</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06619853984457058</v>
+        <v>0.06619853984457059</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04818065090178651</v>
+        <v>0.05014055173780486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08581994322853623</v>
+        <v>0.08452942455743835</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>107962</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>91839</v>
+        <v>91160</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124441</v>
+        <v>124870</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3416607773865011</v>
+        <v>0.3416607773865012</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2906352281866982</v>
+        <v>0.2884873743480307</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3938098981419808</v>
+        <v>0.3951665739614998</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>99</v>
@@ -1551,19 +1551,19 @@
         <v>71299</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>58092</v>
+        <v>58873</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>84303</v>
+        <v>84840</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2012262475808795</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.163953089293189</v>
+        <v>0.166156377001921</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2379286039722236</v>
+        <v>0.2394439748824252</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>211</v>
@@ -1572,19 +1572,19 @@
         <v>179261</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>158355</v>
+        <v>159066</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>202250</v>
+        <v>202419</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2674285382134503</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2362398832743918</v>
+        <v>0.2373000303519041</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3017234325807115</v>
+        <v>0.3019754236348394</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>116034</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101096</v>
+        <v>100461</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>133718</v>
+        <v>132259</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3672056914015115</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3199317649412478</v>
+        <v>0.3179210573894519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4231689160825918</v>
+        <v>0.4185507232786767</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>260</v>
@@ -1622,19 +1622,19 @@
         <v>166000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>151257</v>
+        <v>150308</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>181218</v>
+        <v>180988</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4685009830055832</v>
+        <v>0.4685009830055833</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.426891292421452</v>
+        <v>0.4242131595357476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5114503901802264</v>
+        <v>0.5108021186042883</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>403</v>
@@ -1643,19 +1643,19 @@
         <v>282035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>259298</v>
+        <v>260057</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>307599</v>
+        <v>304333</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4207493342923667</v>
+        <v>0.4207493342923669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3868300898594916</v>
+        <v>0.3879618225895907</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4588867307240558</v>
+        <v>0.4540149794672987</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>66288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53285</v>
+        <v>53520</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80632</v>
+        <v>80775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.209776504809156</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1686259567776753</v>
+        <v>0.1693718251186725</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2551704475753745</v>
+        <v>0.2556238282244802</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -1693,19 +1693,19 @@
         <v>98357</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84211</v>
+        <v>84448</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113029</v>
+        <v>113142</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2775929721511547</v>
+        <v>0.2775929721511548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.237667242518605</v>
+        <v>0.2383366997804033</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3189994603170456</v>
+        <v>0.3193188852255435</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>224</v>
@@ -1714,19 +1714,19 @@
         <v>164645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143632</v>
+        <v>144041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>183665</v>
+        <v>184972</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2456235876496122</v>
+        <v>0.2456235876496123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2142746377440625</v>
+        <v>0.2148853434742094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2739974835306224</v>
+        <v>0.2759481906729139</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>5697</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1991</v>
+        <v>1740</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14670</v>
+        <v>15162</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.01529856166820222</v>
+        <v>0.01529856166820221</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005345535844038309</v>
+        <v>0.004672561323173058</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03939526945124663</v>
+        <v>0.04071648190147591</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1839,19 +1839,19 @@
         <v>8490</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4480</v>
+        <v>4527</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16184</v>
+        <v>16565</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02011948260326159</v>
+        <v>0.0201194826032616</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01061715766222075</v>
+        <v>0.01072788718232239</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03835501003333194</v>
+        <v>0.03925797705115807</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1860,19 +1860,19 @@
         <v>14186</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8408</v>
+        <v>7786</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24549</v>
+        <v>24622</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01785948971364108</v>
+        <v>0.01785948971364107</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0105852677229454</v>
+        <v>0.009801479069495975</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03090442436991497</v>
+        <v>0.03099678380393113</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>42538</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29709</v>
+        <v>29593</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62623</v>
+        <v>60611</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1142335213895432</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07978141716595033</v>
+        <v>0.07946933615309799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1681699109908291</v>
+        <v>0.1627675144330512</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -1910,19 +1910,19 @@
         <v>50286</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37243</v>
+        <v>37930</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65452</v>
+        <v>65095</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1191729910409798</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0882614263821897</v>
+        <v>0.08988991255550711</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1551149834256232</v>
+        <v>0.1542672736436561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>107</v>
@@ -1931,19 +1931,19 @@
         <v>92824</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73890</v>
+        <v>75078</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115956</v>
+        <v>114710</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1168574238617795</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09302066862270023</v>
+        <v>0.09451602342509631</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1459786030050338</v>
+        <v>0.1444096993256637</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>149254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>124114</v>
+        <v>123585</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>173056</v>
+        <v>171321</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4008139855725991</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3333031459223794</v>
+        <v>0.3318801282540063</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4647344041960582</v>
+        <v>0.460073808008276</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>318</v>
@@ -1981,19 +1981,19 @@
         <v>213931</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>193899</v>
+        <v>192031</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>232890</v>
+        <v>233343</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5069914648559696</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4595191492850757</v>
+        <v>0.4550923660674474</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5519223480855708</v>
+        <v>0.5529971649097277</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>453</v>
@@ -2002,19 +2002,19 @@
         <v>363185</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>333963</v>
+        <v>329347</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>395016</v>
+        <v>394064</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4572166704856298</v>
+        <v>0.4572166704856296</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4204287226574423</v>
+        <v>0.4146183233071906</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4972893407115263</v>
+        <v>0.4960906599577227</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>174888</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>149983</v>
+        <v>148827</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200006</v>
+        <v>198341</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4696539313696556</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4027718504944869</v>
+        <v>0.399668604098476</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5371055758269667</v>
+        <v>0.5326347929041598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -2052,19 +2052,19 @@
         <v>149254</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131180</v>
+        <v>131468</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>168996</v>
+        <v>170657</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.353716061499789</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3108817051399313</v>
+        <v>0.311564473363726</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4005025800169363</v>
+        <v>0.4044375931724127</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>314</v>
@@ -2073,19 +2073,19 @@
         <v>324143</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>289768</v>
+        <v>291669</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>356525</v>
+        <v>357033</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4080664159389498</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3647914914155438</v>
+        <v>0.3671853046054373</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4488329799488772</v>
+        <v>0.4494718822365535</v>
       </c>
     </row>
     <row r="23">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2923</v>
+        <v>2128</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002503000362498083</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01421140906397272</v>
+        <v>0.01034744086234799</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2198,19 +2198,19 @@
         <v>1638</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4798</v>
+        <v>5164</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.007230427069424844</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001890734952074683</v>
+        <v>0.001909212690633959</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02118296673510361</v>
+        <v>0.02279967001656989</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2219,19 +2219,19 @@
         <v>2152</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5486</v>
+        <v>5274</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.004980629013253527</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001118475827806145</v>
+        <v>0.001089090525610958</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01269360679680883</v>
+        <v>0.01220447933365661</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>10008</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5760</v>
+        <v>5886</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16801</v>
+        <v>17588</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04866093659776868</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02800596429855771</v>
+        <v>0.02862004812323241</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08169067947483485</v>
+        <v>0.08551738826496055</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2269,19 +2269,19 @@
         <v>6568</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3467</v>
+        <v>3613</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10614</v>
+        <v>10670</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02900014346453936</v>
+        <v>0.02900014346453937</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01530683449383303</v>
+        <v>0.01595206756396503</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.046863699028932</v>
+        <v>0.04711100153525122</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -2290,19 +2290,19 @@
         <v>16576</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11170</v>
+        <v>11345</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23797</v>
+        <v>24450</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0383567801542451</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02584821125157061</v>
+        <v>0.02625098563114925</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05506587700798601</v>
+        <v>0.05657684198125338</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>136803</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>123837</v>
+        <v>124621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>147778</v>
+        <v>148389</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.66517418348726</v>
+        <v>0.6651741834872601</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6021273230797435</v>
+        <v>0.6059435793024583</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.718538506211888</v>
+        <v>0.7215061591079381</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>320</v>
@@ -2340,19 +2340,19 @@
         <v>144902</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>133075</v>
+        <v>135263</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>155145</v>
+        <v>155312</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6397656789763819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5875486690913397</v>
+        <v>0.5972095805562648</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6849909350720849</v>
+        <v>0.6857266977057456</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>505</v>
@@ -2361,19 +2361,19 @@
         <v>281705</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>264910</v>
+        <v>263497</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>298229</v>
+        <v>297570</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6518576705825206</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6129944840006245</v>
+        <v>0.6097242839249133</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6900934398109883</v>
+        <v>0.6885689611867979</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>58339</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>47893</v>
+        <v>47706</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>69951</v>
+        <v>69536</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2836618795524732</v>
+        <v>0.2836618795524731</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2328701081181647</v>
+        <v>0.2319595784490313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3401205302497453</v>
+        <v>0.3381015748964039</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>153</v>
@@ -2411,19 +2411,19 @@
         <v>73384</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>63288</v>
+        <v>62744</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>84708</v>
+        <v>83194</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.3240037504896538</v>
+        <v>0.3240037504896539</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2794251827776765</v>
+        <v>0.2770255851982758</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3739986577189813</v>
+        <v>0.3673149513552399</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>232</v>
@@ -2432,19 +2432,19 @@
         <v>131724</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>116268</v>
+        <v>116277</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>147672</v>
+        <v>148556</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3048049202499808</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2690404615472013</v>
+        <v>0.2690612755620225</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3417082542820628</v>
+        <v>0.3437553793797302</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>8647</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4274</v>
+        <v>4495</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15242</v>
+        <v>16313</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03194139223379468</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01578925551784296</v>
+        <v>0.01660482195490621</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05630580305252269</v>
+        <v>0.06025967656077173</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2557,19 +2557,19 @@
         <v>5420</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2411</v>
+        <v>2381</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12305</v>
+        <v>11419</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.02055121432751311</v>
+        <v>0.0205512143275131</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009142511350366018</v>
+        <v>0.009026045591319091</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04665361246706332</v>
+        <v>0.04329528713681007</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -2578,19 +2578,19 @@
         <v>14067</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8144</v>
+        <v>8638</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22124</v>
+        <v>22332</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02632043259921829</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01523765022419957</v>
+        <v>0.01616297468574659</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04139539418640956</v>
+        <v>0.04178354152658543</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>110974</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>96587</v>
+        <v>95773</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>126018</v>
+        <v>124800</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.409940413854558</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3567959195183845</v>
+        <v>0.3537890601304265</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4655154763585468</v>
+        <v>0.4610136789354194</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>153</v>
@@ -2628,19 +2628,19 @@
         <v>93987</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>80768</v>
+        <v>80874</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>108074</v>
+        <v>106859</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3563493304654342</v>
+        <v>0.356349330465434</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.306230869227484</v>
+        <v>0.3066325496100543</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4097593303884539</v>
+        <v>0.4051517268396503</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>294</v>
@@ -2649,19 +2649,19 @@
         <v>204961</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>187963</v>
+        <v>187317</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>225992</v>
+        <v>226912</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3834936525324758</v>
+        <v>0.3834936525324759</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3516889785524179</v>
+        <v>0.350480828236037</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.422843365999713</v>
+        <v>0.4245647335909224</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>137959</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>122161</v>
+        <v>123529</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>152131</v>
+        <v>152440</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5096254556349802</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4512657835648141</v>
+        <v>0.4563197088902889</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.56197575497723</v>
+        <v>0.5631166318189231</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>276</v>
@@ -2699,19 +2699,19 @@
         <v>149052</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>135776</v>
+        <v>136755</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>163235</v>
+        <v>162690</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.5651247327448856</v>
+        <v>0.5651247327448854</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5147921479029528</v>
+        <v>0.5185027385005969</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6189002282375103</v>
+        <v>0.6168330116391281</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>475</v>
@@ -2720,19 +2720,19 @@
         <v>287011</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>267079</v>
+        <v>265181</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>305885</v>
+        <v>305464</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5370138949508318</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4997200461485481</v>
+        <v>0.4961690211850416</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5723293256851725</v>
+        <v>0.5715416933930682</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>13127</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7924</v>
+        <v>8269</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>20865</v>
+        <v>20404</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04849273827666713</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02927007059346402</v>
+        <v>0.03054744582847814</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07707589549619817</v>
+        <v>0.07537442216505283</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2770,19 +2770,19 @@
         <v>15291</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9486</v>
+        <v>9714</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21878</v>
+        <v>22854</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.05797472246216728</v>
+        <v>0.05797472246216726</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03596464053988402</v>
+        <v>0.036830720502372</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08295085166634626</v>
+        <v>0.08664899035846049</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>43</v>
@@ -2791,19 +2791,19 @@
         <v>28418</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20424</v>
+        <v>20182</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>38234</v>
+        <v>38620</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05317201991747405</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03821360642580648</v>
+        <v>0.03776110695695024</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07153893076612604</v>
+        <v>0.07225936199987475</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>84742</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>65044</v>
+        <v>63760</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>106530</v>
+        <v>107183</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1182748378197761</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09078191139752333</v>
+        <v>0.0889906736911302</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1486850492588041</v>
+        <v>0.1495958028978842</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>67</v>
@@ -2916,19 +2916,19 @@
         <v>62124</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>48115</v>
+        <v>47613</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>81467</v>
+        <v>81550</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08046619953882052</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06232110715814922</v>
+        <v>0.0616704207482542</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1055187775840847</v>
+        <v>0.1056273055304003</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>132</v>
@@ -2937,19 +2937,19 @@
         <v>146866</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>122012</v>
+        <v>123690</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>173808</v>
+        <v>177982</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.09866473923605579</v>
+        <v>0.0986647392360558</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08196757679035671</v>
+        <v>0.08309490188190713</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1167640213460453</v>
+        <v>0.1195678471463886</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>118355</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>97025</v>
+        <v>97455</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>142517</v>
+        <v>146510</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1651893707264025</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1354187140112528</v>
+        <v>0.1360188494367344</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1989124196877282</v>
+        <v>0.2044846793334942</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>158</v>
@@ -2987,19 +2987,19 @@
         <v>130926</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>111833</v>
+        <v>112758</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>153374</v>
+        <v>152186</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1695805707616532</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1448504116222047</v>
+        <v>0.146048326835212</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1986567931639939</v>
+        <v>0.1971170425711101</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>253</v>
@@ -3008,19 +3008,19 @@
         <v>249281</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>218951</v>
+        <v>220443</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>284067</v>
+        <v>278942</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1674669419246087</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1470913613553263</v>
+        <v>0.1480932157760684</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1908357522004687</v>
+        <v>0.1873931971527264</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>223698</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>198717</v>
+        <v>195480</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>255080</v>
+        <v>254080</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3122168843673035</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.277349959285406</v>
+        <v>0.2728331948327456</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3560173537534521</v>
+        <v>0.3546206781287615</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>325</v>
@@ -3058,19 +3058,19 @@
         <v>258990</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>235789</v>
+        <v>234926</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>285196</v>
+        <v>285834</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3354539692430521</v>
+        <v>0.3354539692430522</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.305403211942415</v>
+        <v>0.3042856233233032</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3693974458536093</v>
+        <v>0.3702237143130416</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>515</v>
@@ -3079,19 +3079,19 @@
         <v>482688</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>442519</v>
+        <v>442076</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>518843</v>
+        <v>522699</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3242691969056589</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.297284215689843</v>
+        <v>0.2969861859049124</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3485580708386857</v>
+        <v>0.3511488119580556</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>289688</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>261229</v>
+        <v>262401</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>319977</v>
+        <v>322660</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.404318907086518</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3645994471050245</v>
+        <v>0.3662350043325116</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4465934710016521</v>
+        <v>0.4503390673546461</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>410</v>
@@ -3129,19 +3129,19 @@
         <v>320017</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>294313</v>
+        <v>293337</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>345725</v>
+        <v>348287</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.414499260456474</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3812066011944862</v>
+        <v>0.3799425624890823</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4477973278311667</v>
+        <v>0.4511151109058861</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>656</v>
@@ -3150,19 +3150,19 @@
         <v>609705</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>566143</v>
+        <v>569885</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>647444</v>
+        <v>646782</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4095991219336765</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3803343153632009</v>
+        <v>0.3828483938854604</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4349521413770069</v>
+        <v>0.4345075734028525</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>18236</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>10280</v>
+        <v>9894</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>32371</v>
+        <v>30500</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02287057808634003</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01289265150497231</v>
+        <v>0.0124087125736601</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04059783076347984</v>
+        <v>0.03825190621728622</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>18</v>
@@ -3275,19 +3275,19 @@
         <v>16014</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>9711</v>
+        <v>9493</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>25459</v>
+        <v>25242</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01930391238271796</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0117054233528166</v>
+        <v>0.01144324729925185</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0306882178188802</v>
+        <v>0.0304266643609253</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>33</v>
@@ -3296,19 +3296,19 @@
         <v>34250</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>23949</v>
+        <v>23415</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>48946</v>
+        <v>49072</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02105189865095369</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01472015366392716</v>
+        <v>0.01439173619237222</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03008465830005802</v>
+        <v>0.03016181183427516</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>97069</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>78937</v>
+        <v>79033</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>116186</v>
+        <v>117338</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1217398153360658</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.09899940171123403</v>
+        <v>0.09911910825086365</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1457147719615369</v>
+        <v>0.1471599348522792</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>120</v>
@@ -3346,19 +3346,19 @@
         <v>96411</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>80541</v>
+        <v>80948</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>113061</v>
+        <v>115650</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1162146215199326</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09708471486328819</v>
+        <v>0.09757474162065488</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1362845497615638</v>
+        <v>0.1394052662222392</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>215</v>
@@ -3367,19 +3367,19 @@
         <v>193481</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>169401</v>
+        <v>169506</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>220547</v>
+        <v>219024</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1189224623220952</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1041220415264318</v>
+        <v>0.104186481921683</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1355583526667259</v>
+        <v>0.1346223057369886</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>575063</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>547307</v>
+        <v>548241</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>598479</v>
+        <v>601552</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.7212174209942476</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.686406376576283</v>
+        <v>0.6875785719137988</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7505845807591581</v>
+        <v>0.7544386697892208</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>769</v>
@@ -3417,19 +3417,19 @@
         <v>598591</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>576973</v>
+        <v>574846</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>621781</v>
+        <v>620355</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.7215430352805415</v>
+        <v>0.7215430352805416</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.6954846137458716</v>
+        <v>0.692921213527422</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7494967142385007</v>
+        <v>0.7477780237355492</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1327</v>
@@ -3438,19 +3438,19 @@
         <v>1173654</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1134684</v>
+        <v>1138610</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1205983</v>
+        <v>1205303</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.7213834550595509</v>
+        <v>0.7213834550595511</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.6974305200845604</v>
+        <v>0.6998437724509108</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7412542034650728</v>
+        <v>0.7408363907148483</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>106982</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>87715</v>
+        <v>86081</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>130390</v>
+        <v>129704</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1341721855833466</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.110008308766403</v>
+        <v>0.1079588660604511</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1635290210903863</v>
+        <v>0.1626691002370056</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>153</v>
@@ -3488,19 +3488,19 @@
         <v>118581</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>100550</v>
+        <v>101288</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>135471</v>
+        <v>136616</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.1429384308168078</v>
+        <v>0.1429384308168079</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1212028008163818</v>
+        <v>0.1220931510331125</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1632975749104964</v>
+        <v>0.1646771275729993</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>246</v>
@@ -3509,19 +3509,19 @@
         <v>225564</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>199144</v>
+        <v>199889</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>254581</v>
+        <v>257798</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1386421839674001</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1224031876961799</v>
+        <v>0.1228612316242242</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1564774266836985</v>
+        <v>0.1584551792928403</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>198818</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>172449</v>
+        <v>170359</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>239954</v>
+        <v>235977</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05635323512110369</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04887901885833602</v>
+        <v>0.04828670107128149</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06801291502449398</v>
+        <v>0.06688566662904691</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>199</v>
@@ -3634,19 +3634,19 @@
         <v>158776</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>136128</v>
+        <v>135916</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>183151</v>
+        <v>183484</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.04255902209217846</v>
+        <v>0.04255902209217847</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03648812576086877</v>
+        <v>0.03643149544268569</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04909245840560111</v>
+        <v>0.04918173469259161</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>371</v>
@@ -3655,19 +3655,19 @@
         <v>357595</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>319429</v>
+        <v>318510</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>398627</v>
+        <v>395812</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0492635606631669</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04400569969095795</v>
+        <v>0.04387909420687835</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05491630910062913</v>
+        <v>0.05452847625473194</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>816110</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>766534</v>
+        <v>759925</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>876474</v>
+        <v>871970</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2313191705136227</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2172673348930682</v>
+        <v>0.2153939642843195</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2484288055731146</v>
+        <v>0.2471523025710798</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1006</v>
@@ -3705,19 +3705,19 @@
         <v>715142</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>673101</v>
+        <v>671112</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>757564</v>
+        <v>762915</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1916894122547657</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1804206141641533</v>
+        <v>0.1798872689515423</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2030602110352823</v>
+        <v>0.2044944798958436</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1780</v>
@@ -3726,19 +3726,19 @@
         <v>1531252</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1461651</v>
+        <v>1461569</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1601665</v>
+        <v>1605270</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2109510578628411</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2013624807231602</v>
+        <v>0.2013512494066652</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2206513209252878</v>
+        <v>0.2211480000127516</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>1713959</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1647798</v>
+        <v>1645216</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1783721</v>
+        <v>1782929</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.4858066287056739</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.4670537916748067</v>
+        <v>0.4663220227996347</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.5055801013888402</v>
+        <v>0.5053553809477449</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2916</v>
@@ -3776,19 +3776,19 @@
         <v>1982819</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1923998</v>
+        <v>1920101</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>2034388</v>
+        <v>2030123</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5314821643834031</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5157154053043993</v>
+        <v>0.5146710088693253</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.5453047568122901</v>
+        <v>0.5441616836340526</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>4636</v>
@@ -3797,19 +3797,19 @@
         <v>3696778</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3613270</v>
+        <v>3611993</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>3782802</v>
+        <v>3782434</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.5092820294384265</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.4977775848025818</v>
+        <v>0.4976016585776268</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5211329807516328</v>
+        <v>0.5210823021276481</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>799182</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>740180</v>
+        <v>742823</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>857856</v>
+        <v>856363</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2265209656595998</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2097973648152211</v>
+        <v>0.2105465319501877</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2431515864794215</v>
+        <v>0.2427284847597286</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1235</v>
@@ -3847,19 +3847,19 @@
         <v>873997</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>826161</v>
+        <v>831674</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>918935</v>
+        <v>923040</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2342694012696528</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2214471232370492</v>
+        <v>0.2229248581133152</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2463148255634411</v>
+        <v>0.2474151426339053</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1940</v>
@@ -3868,19 +3868,19 @@
         <v>1673179</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1603323</v>
+        <v>1606432</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1748157</v>
+        <v>1752222</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2305033520355655</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2208797155327799</v>
+        <v>0.2213080473726835</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.240832592603001</v>
+        <v>0.2413926378815323</v>
       </c>
     </row>
     <row r="48">
